--- a/sencing_test/re_re_re_re_re_collect_data.xlsx
+++ b/sencing_test/re_re_re_re_re_collect_data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sasakikanta/R_D/Raspbrerry-Pi-Operation/sencing_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F31AA0-B658-7B4F-9AB8-ACBC4B7C0E49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A452D67B-9592-FF43-920F-1587CD868C0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-3600" windowWidth="38400" windowHeight="21600" xr2:uid="{2247A6E5-E3E5-E94B-969B-BFA11DEC0B6A}"/>
+    <workbookView xWindow="28800" yWindow="-3140" windowWidth="38400" windowHeight="19740" xr2:uid="{2247A6E5-E3E5-E94B-969B-BFA11DEC0B6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="45">
   <si>
     <t>父親</t>
     <rPh sb="0" eb="2">
@@ -284,6 +284,10 @@
     <t>val</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>dorp</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -338,6 +342,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -346,9 +353,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6134,8 +6138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D41F742-ED28-F54E-A0E3-8C31CDC77D1B}">
   <dimension ref="A1:AK128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
-      <selection activeCell="AJ23" sqref="AJ23"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -6252,18 +6256,18 @@
       <c r="L2">
         <v>0.59171597633136086</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
       <c r="X2" t="s">
         <v>4</v>
       </c>
@@ -6315,13 +6319,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -6537,7 +6541,7 @@
       <c r="L5">
         <v>0.28994082840236673</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="N5" t="s">
@@ -6645,7 +6649,7 @@
       <c r="L6">
         <v>3.4082840236686378</v>
       </c>
-      <c r="M6" s="3"/>
+      <c r="M6" s="4"/>
       <c r="N6" t="s">
         <v>6</v>
       </c>
@@ -6744,7 +6748,7 @@
       <c r="L7">
         <v>5.9171597633135677E-3</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="4"/>
       <c r="N7" t="s">
         <v>8</v>
       </c>
@@ -6815,7 +6819,10 @@
       <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="3"/>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="4"/>
       <c r="N8" t="s">
         <v>9</v>
       </c>
@@ -6850,7 +6857,7 @@
       <c r="F9" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="3"/>
+      <c r="M9" s="4"/>
       <c r="N9" t="s">
         <v>14</v>
       </c>
@@ -6873,7 +6880,7 @@
       </c>
     </row>
     <row r="10" spans="1:37">
-      <c r="M10" s="3"/>
+      <c r="M10" s="4"/>
       <c r="N10" t="s">
         <v>11</v>
       </c>
@@ -6891,19 +6898,19 @@
         <f>2/(1/V10+1/T12)</f>
         <v>0.8970588235294118</v>
       </c>
-      <c r="Y10" s="1" t="s">
+      <c r="Y10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
     </row>
     <row r="11" spans="1:37">
       <c r="A11" t="s">
@@ -6933,7 +6940,7 @@
       <c r="I11" t="s">
         <v>3</v>
       </c>
-      <c r="M11" s="3"/>
+      <c r="M11" s="4"/>
       <c r="N11" t="s">
         <v>12</v>
       </c>
@@ -7047,10 +7054,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -7216,18 +7223,18 @@
       <c r="L15">
         <v>0.25147928994082841</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
       <c r="Z15" t="s">
         <v>42</v>
       </c>
@@ -7431,7 +7438,7 @@
       <c r="E18" t="s">
         <v>9</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="N18" t="s">
@@ -7504,7 +7511,7 @@
       <c r="D19" t="s">
         <v>35</v>
       </c>
-      <c r="M19" s="3"/>
+      <c r="M19" s="4"/>
       <c r="N19" t="s">
         <v>6</v>
       </c>
@@ -7560,7 +7567,7 @@
       </c>
     </row>
     <row r="20" spans="1:35">
-      <c r="M20" s="3"/>
+      <c r="M20" s="4"/>
       <c r="N20" t="s">
         <v>8</v>
       </c>
@@ -7639,7 +7646,7 @@
       <c r="I21" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
+      <c r="M21" s="4"/>
       <c r="N21" t="s">
         <v>9</v>
       </c>
@@ -7707,7 +7714,7 @@
       <c r="L22">
         <v>0.23274161735700197</v>
       </c>
-      <c r="M22" s="3"/>
+      <c r="M22" s="4"/>
       <c r="N22" t="s">
         <v>14</v>
       </c>
@@ -7775,7 +7782,7 @@
       <c r="L23">
         <v>0.28796844181459574</v>
       </c>
-      <c r="M23" s="3"/>
+      <c r="M23" s="4"/>
       <c r="N23" t="s">
         <v>11</v>
       </c>
@@ -7843,7 +7850,7 @@
       <c r="L24">
         <v>0.93096646942800787</v>
       </c>
-      <c r="M24" s="3"/>
+      <c r="M24" s="4"/>
       <c r="N24" t="s">
         <v>12</v>
       </c>
@@ -7904,7 +7911,7 @@
       <c r="L25">
         <v>0.23865877712031561</v>
       </c>
-      <c r="M25" s="3"/>
+      <c r="M25" s="4"/>
       <c r="N25" t="s">
         <v>2</v>
       </c>
@@ -7970,7 +7977,7 @@
       <c r="L26">
         <v>1.1518737672583823</v>
       </c>
-      <c r="M26" s="3"/>
+      <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:35">
       <c r="A27" t="s">
@@ -8020,18 +8027,18 @@
       </c>
     </row>
     <row r="29" spans="1:35">
-      <c r="N29" s="1" t="s">
+      <c r="N29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
     </row>
     <row r="30" spans="1:35">
       <c r="O30" t="s">
@@ -8129,7 +8136,7 @@
       <c r="L32">
         <v>0.18786982248520712</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="N32" t="s">
@@ -8174,7 +8181,7 @@
       <c r="L33">
         <v>0.2174556213017752</v>
       </c>
-      <c r="M33" s="3"/>
+      <c r="M33" s="4"/>
       <c r="N33" t="s">
         <v>6</v>
       </c>
@@ -8217,7 +8224,7 @@
       <c r="L34">
         <v>0.75147928994082847</v>
       </c>
-      <c r="M34" s="3"/>
+      <c r="M34" s="4"/>
       <c r="N34" t="s">
         <v>8</v>
       </c>
@@ -8260,7 +8267,7 @@
       <c r="L35">
         <v>0.25147928994082841</v>
       </c>
-      <c r="M35" s="3"/>
+      <c r="M35" s="4"/>
       <c r="N35" t="s">
         <v>9</v>
       </c>
@@ -8303,7 +8310,7 @@
       <c r="L36">
         <v>0.86982248520710037</v>
       </c>
-      <c r="M36" s="3"/>
+      <c r="M36" s="4"/>
       <c r="N36" t="s">
         <v>14</v>
       </c>
@@ -8346,7 +8353,7 @@
       <c r="L37">
         <v>0.21745562130177523</v>
       </c>
-      <c r="M37" s="3"/>
+      <c r="M37" s="4"/>
       <c r="N37" t="s">
         <v>11</v>
       </c>
@@ -8355,19 +8362,19 @@
       <c r="A38" t="s">
         <v>12</v>
       </c>
-      <c r="M38" s="3"/>
+      <c r="M38" s="4"/>
       <c r="N38" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:23">
-      <c r="M39" s="3"/>
+      <c r="M39" s="4"/>
       <c r="N39" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:23">
-      <c r="M40" s="3"/>
+      <c r="M40" s="4"/>
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
@@ -8475,18 +8482,18 @@
       <c r="L43">
         <v>0.17514792899408288</v>
       </c>
-      <c r="N43" s="1" t="s">
+      <c r="N43" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
@@ -8632,7 +8639,7 @@
       <c r="L46">
         <v>0.70059171597633119</v>
       </c>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="3" t="s">
         <v>13</v>
       </c>
       <c r="N46" t="s">
@@ -8702,7 +8709,7 @@
       <c r="L47">
         <v>0.17514792899408288</v>
       </c>
-      <c r="M47" s="3"/>
+      <c r="M47" s="4"/>
       <c r="N47" t="s">
         <v>6</v>
       </c>
@@ -8742,7 +8749,7 @@
       <c r="E48" t="s">
         <v>14</v>
       </c>
-      <c r="M48" s="3"/>
+      <c r="M48" s="4"/>
       <c r="N48" t="s">
         <v>8</v>
       </c>
@@ -8785,7 +8792,7 @@
       <c r="F49" t="s">
         <v>9</v>
       </c>
-      <c r="M49" s="3"/>
+      <c r="M49" s="4"/>
       <c r="N49" t="s">
         <v>9</v>
       </c>
@@ -8816,7 +8823,7 @@
       </c>
     </row>
     <row r="50" spans="1:23">
-      <c r="M50" s="3"/>
+      <c r="M50" s="4"/>
       <c r="N50" t="s">
         <v>14</v>
       </c>
@@ -8874,7 +8881,7 @@
       <c r="I51" t="s">
         <v>3</v>
       </c>
-      <c r="M51" s="3"/>
+      <c r="M51" s="4"/>
       <c r="N51" t="s">
         <v>11</v>
       </c>
@@ -8942,7 +8949,7 @@
       <c r="L52">
         <v>0.14299802761341227</v>
       </c>
-      <c r="M52" s="3"/>
+      <c r="M52" s="4"/>
       <c r="N52" t="s">
         <v>12</v>
       </c>
@@ -9003,7 +9010,7 @@
       <c r="L53">
         <v>0.14694280078895464</v>
       </c>
-      <c r="M53" s="3"/>
+      <c r="M53" s="4"/>
       <c r="N53" t="s">
         <v>2</v>
       </c>
@@ -9067,7 +9074,7 @@
       <c r="L54">
         <v>0.57199211045364906</v>
       </c>
-      <c r="M54" s="3"/>
+      <c r="M54" s="4"/>
     </row>
     <row r="55" spans="1:23">
       <c r="A55" t="s">
@@ -9147,18 +9154,18 @@
       <c r="L56">
         <v>0.58777120315581843</v>
       </c>
-      <c r="N56" s="1" t="s">
+      <c r="N56" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="1"/>
-      <c r="U56" s="1"/>
-      <c r="V56" s="1"/>
-      <c r="W56" s="1"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
     </row>
     <row r="57" spans="1:23">
       <c r="A57" t="s">
@@ -9241,7 +9248,7 @@
       <c r="B59" t="s">
         <v>4</v>
       </c>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>13</v>
       </c>
       <c r="N59" t="s">
@@ -9279,7 +9286,7 @@
       </c>
     </row>
     <row r="60" spans="1:23">
-      <c r="M60" s="3"/>
+      <c r="M60" s="4"/>
       <c r="N60" t="s">
         <v>6</v>
       </c>
@@ -9342,7 +9349,7 @@
       <c r="I61" t="s">
         <v>3</v>
       </c>
-      <c r="M61" s="3"/>
+      <c r="M61" s="4"/>
       <c r="N61" t="s">
         <v>8</v>
       </c>
@@ -9415,7 +9422,7 @@
       <c r="L62">
         <v>0.13017751479289943</v>
       </c>
-      <c r="M62" s="3"/>
+      <c r="M62" s="4"/>
       <c r="N62" t="s">
         <v>9</v>
       </c>
@@ -9488,7 +9495,7 @@
       <c r="L63">
         <v>0.12679628064243448</v>
       </c>
-      <c r="M63" s="3"/>
+      <c r="M63" s="4"/>
       <c r="N63" t="s">
         <v>14</v>
       </c>
@@ -9561,7 +9568,7 @@
       <c r="L64">
         <v>0.53169907016060869</v>
       </c>
-      <c r="M64" s="3"/>
+      <c r="M64" s="4"/>
       <c r="N64" t="s">
         <v>11</v>
       </c>
@@ -9634,7 +9641,7 @@
       <c r="L65">
         <v>0.52071005917159774</v>
       </c>
-      <c r="M65" s="3"/>
+      <c r="M65" s="4"/>
       <c r="N65" t="s">
         <v>12</v>
       </c>
@@ -9695,7 +9702,7 @@
       <c r="L66">
         <v>0.50718512256973791</v>
       </c>
-      <c r="M66" s="3"/>
+      <c r="M66" s="4"/>
       <c r="N66" t="s">
         <v>2</v>
       </c>
@@ -9760,24 +9767,24 @@
       <c r="L67">
         <v>0.12679628064243451</v>
       </c>
-      <c r="M67" s="3"/>
+      <c r="M67" s="4"/>
     </row>
     <row r="68" spans="1:23">
       <c r="A68" t="s">
         <v>12</v>
       </c>
-      <c r="N68" s="3" t="s">
+      <c r="N68" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
-      <c r="R68" s="3"/>
-      <c r="S68" s="3"/>
-      <c r="T68" s="3"/>
-      <c r="U68" s="3"/>
-      <c r="V68" s="3"/>
-      <c r="W68" s="3"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4"/>
+      <c r="S68" s="4"/>
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="4"/>
     </row>
     <row r="69" spans="1:23">
       <c r="B69" t="s">
@@ -9789,28 +9796,28 @@
       <c r="E69" t="s">
         <v>9</v>
       </c>
-      <c r="N69" s="3"/>
-      <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="3"/>
-      <c r="R69" s="3"/>
-      <c r="S69" s="3"/>
-      <c r="T69" s="3"/>
-      <c r="U69" s="3"/>
-      <c r="V69" s="3"/>
-      <c r="W69" s="3"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="4"/>
+      <c r="S69" s="4"/>
+      <c r="T69" s="4"/>
+      <c r="U69" s="4"/>
+      <c r="V69" s="4"/>
+      <c r="W69" s="4"/>
     </row>
     <row r="70" spans="1:23">
-      <c r="N70" s="3"/>
-      <c r="O70" s="3"/>
-      <c r="P70" s="3"/>
-      <c r="Q70" s="3"/>
-      <c r="R70" s="3"/>
-      <c r="S70" s="3"/>
-      <c r="T70" s="3"/>
-      <c r="U70" s="3"/>
-      <c r="V70" s="3"/>
-      <c r="W70" s="3"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
+      <c r="S70" s="4"/>
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="4"/>
     </row>
     <row r="71" spans="1:23">
       <c r="A71" t="s">
@@ -9840,16 +9847,16 @@
       <c r="I71" t="s">
         <v>3</v>
       </c>
-      <c r="N71" s="3"/>
-      <c r="O71" s="3"/>
-      <c r="P71" s="3"/>
-      <c r="Q71" s="3"/>
-      <c r="R71" s="3"/>
-      <c r="S71" s="3"/>
-      <c r="T71" s="3"/>
-      <c r="U71" s="3"/>
-      <c r="V71" s="3"/>
-      <c r="W71" s="3"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4"/>
+      <c r="S71" s="4"/>
+      <c r="T71" s="4"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="4"/>
     </row>
     <row r="72" spans="1:23">
       <c r="A72" t="s">
@@ -9890,16 +9897,16 @@
       <c r="L72">
         <v>0.12056213017751483</v>
       </c>
-      <c r="N72" s="3"/>
-      <c r="O72" s="3"/>
-      <c r="P72" s="3"/>
-      <c r="Q72" s="3"/>
-      <c r="R72" s="3"/>
-      <c r="S72" s="3"/>
-      <c r="T72" s="3"/>
-      <c r="U72" s="3"/>
-      <c r="V72" s="3"/>
-      <c r="W72" s="3"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="4"/>
     </row>
     <row r="73" spans="1:23">
       <c r="A73" t="s">
@@ -9939,16 +9946,16 @@
       <c r="L73">
         <v>0.11168639053254437</v>
       </c>
-      <c r="N73" s="3"/>
-      <c r="O73" s="3"/>
-      <c r="P73" s="3"/>
-      <c r="Q73" s="3"/>
-      <c r="R73" s="3"/>
-      <c r="S73" s="3"/>
-      <c r="T73" s="3"/>
-      <c r="U73" s="3"/>
-      <c r="V73" s="3"/>
-      <c r="W73" s="3"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="4"/>
+      <c r="S73" s="4"/>
+      <c r="T73" s="4"/>
+      <c r="U73" s="4"/>
+      <c r="V73" s="4"/>
+      <c r="W73" s="4"/>
     </row>
     <row r="74" spans="1:23">
       <c r="A74" t="s">
@@ -9988,16 +9995,16 @@
       <c r="L74">
         <v>0.50147928994082847</v>
       </c>
-      <c r="N74" s="3"/>
-      <c r="O74" s="3"/>
-      <c r="P74" s="3"/>
-      <c r="Q74" s="3"/>
-      <c r="R74" s="3"/>
-      <c r="S74" s="3"/>
-      <c r="T74" s="3"/>
-      <c r="U74" s="3"/>
-      <c r="V74" s="3"/>
-      <c r="W74" s="3"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="4"/>
+      <c r="S74" s="4"/>
+      <c r="T74" s="4"/>
+      <c r="U74" s="4"/>
+      <c r="V74" s="4"/>
+      <c r="W74" s="4"/>
     </row>
     <row r="75" spans="1:23">
       <c r="A75" t="s">
@@ -10037,16 +10044,16 @@
       <c r="L75">
         <v>0.49186390532544388</v>
       </c>
-      <c r="N75" s="3"/>
-      <c r="O75" s="3"/>
-      <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
-      <c r="R75" s="3"/>
-      <c r="S75" s="3"/>
-      <c r="T75" s="3"/>
-      <c r="U75" s="3"/>
-      <c r="V75" s="3"/>
-      <c r="W75" s="3"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="4"/>
+      <c r="S75" s="4"/>
+      <c r="T75" s="4"/>
+      <c r="U75" s="4"/>
+      <c r="V75" s="4"/>
+      <c r="W75" s="4"/>
     </row>
     <row r="76" spans="1:23">
       <c r="A76" t="s">
@@ -10087,16 +10094,16 @@
       <c r="L76">
         <v>0.44674556213017746</v>
       </c>
-      <c r="N76" s="3"/>
-      <c r="O76" s="3"/>
-      <c r="P76" s="3"/>
-      <c r="Q76" s="3"/>
-      <c r="R76" s="3"/>
-      <c r="S76" s="3"/>
-      <c r="T76" s="3"/>
-      <c r="U76" s="3"/>
-      <c r="V76" s="3"/>
-      <c r="W76" s="3"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4"/>
+      <c r="S76" s="4"/>
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="4"/>
     </row>
     <row r="77" spans="1:23">
       <c r="A77" t="s">
@@ -10137,16 +10144,16 @@
       <c r="L77">
         <v>0.11168639053254438</v>
       </c>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
-      <c r="P77" s="3"/>
-      <c r="Q77" s="3"/>
-      <c r="R77" s="3"/>
-      <c r="S77" s="3"/>
-      <c r="T77" s="3"/>
-      <c r="U77" s="3"/>
-      <c r="V77" s="3"/>
-      <c r="W77" s="3"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
+      <c r="S77" s="4"/>
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="4"/>
     </row>
     <row r="78" spans="1:23">
       <c r="A78" t="s">
@@ -10158,16 +10165,16 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="N78" s="3"/>
-      <c r="O78" s="3"/>
-      <c r="P78" s="3"/>
-      <c r="Q78" s="3"/>
-      <c r="R78" s="3"/>
-      <c r="S78" s="3"/>
-      <c r="T78" s="3"/>
-      <c r="U78" s="3"/>
-      <c r="V78" s="3"/>
-      <c r="W78" s="3"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4"/>
+      <c r="S78" s="4"/>
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+      <c r="V78" s="4"/>
+      <c r="W78" s="4"/>
     </row>
     <row r="79" spans="1:23">
       <c r="B79" t="s">
@@ -10179,28 +10186,28 @@
       <c r="E79" t="s">
         <v>9</v>
       </c>
-      <c r="N79" s="3"/>
-      <c r="O79" s="3"/>
-      <c r="P79" s="3"/>
-      <c r="Q79" s="3"/>
-      <c r="R79" s="3"/>
-      <c r="S79" s="3"/>
-      <c r="T79" s="3"/>
-      <c r="U79" s="3"/>
-      <c r="V79" s="3"/>
-      <c r="W79" s="3"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="4"/>
+      <c r="S79" s="4"/>
+      <c r="T79" s="4"/>
+      <c r="U79" s="4"/>
+      <c r="V79" s="4"/>
+      <c r="W79" s="4"/>
     </row>
     <row r="80" spans="1:23">
-      <c r="N80" s="3"/>
-      <c r="O80" s="3"/>
-      <c r="P80" s="3"/>
-      <c r="Q80" s="3"/>
-      <c r="R80" s="3"/>
-      <c r="S80" s="3"/>
-      <c r="T80" s="3"/>
-      <c r="U80" s="3"/>
-      <c r="V80" s="3"/>
-      <c r="W80" s="3"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4"/>
+      <c r="S80" s="4"/>
+      <c r="T80" s="4"/>
+      <c r="U80" s="4"/>
+      <c r="V80" s="4"/>
+      <c r="W80" s="4"/>
     </row>
     <row r="81" spans="1:23">
       <c r="A81" t="s">
@@ -10230,16 +10237,16 @@
       <c r="I81" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-      <c r="O81" s="3"/>
-      <c r="P81" s="3"/>
-      <c r="Q81" s="3"/>
-      <c r="R81" s="3"/>
-      <c r="S81" s="3"/>
-      <c r="T81" s="3"/>
-      <c r="U81" s="3"/>
-      <c r="V81" s="3"/>
-      <c r="W81" s="3"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4"/>
+      <c r="S81" s="4"/>
+      <c r="T81" s="4"/>
+      <c r="U81" s="4"/>
+      <c r="V81" s="4"/>
+      <c r="W81" s="4"/>
     </row>
     <row r="82" spans="1:23">
       <c r="A82" t="s">
@@ -10279,16 +10286,16 @@
       <c r="L82">
         <v>0.11308349769888235</v>
       </c>
-      <c r="N82" s="3"/>
-      <c r="O82" s="3"/>
-      <c r="P82" s="3"/>
-      <c r="Q82" s="3"/>
-      <c r="R82" s="3"/>
-      <c r="S82" s="3"/>
-      <c r="T82" s="3"/>
-      <c r="U82" s="3"/>
-      <c r="V82" s="3"/>
-      <c r="W82" s="3"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4"/>
+      <c r="S82" s="4"/>
+      <c r="T82" s="4"/>
+      <c r="U82" s="4"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="4"/>
     </row>
     <row r="83" spans="1:23">
       <c r="A83" t="s">
@@ -11397,7 +11404,7 @@
       <c r="L117">
         <v>7.6429980276134096E-2</v>
       </c>
-      <c r="N117" s="4"/>
+      <c r="N117" s="1"/>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" t="s">
@@ -11693,13 +11700,13 @@
     <mergeCell ref="N68:W82"/>
     <mergeCell ref="N56:W56"/>
     <mergeCell ref="M59:M67"/>
+    <mergeCell ref="N29:W29"/>
+    <mergeCell ref="M32:M40"/>
     <mergeCell ref="Y10:AI10"/>
     <mergeCell ref="N2:W2"/>
     <mergeCell ref="M5:M11"/>
     <mergeCell ref="N15:W15"/>
     <mergeCell ref="M18:M26"/>
-    <mergeCell ref="N29:W29"/>
-    <mergeCell ref="M32:M40"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sencing_test/re_re_re_re_re_collect_data.xlsx
+++ b/sencing_test/re_re_re_re_re_collect_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sasakikanta/R_D/Raspbrerry-Pi-Operation/sencing_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A452D67B-9592-FF43-920F-1587CD868C0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE37D91-AFCB-F746-B46D-10F2CC9986AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-3140" windowWidth="38400" windowHeight="19740" xr2:uid="{2247A6E5-E3E5-E94B-969B-BFA11DEC0B6A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{2247A6E5-E3E5-E94B-969B-BFA11DEC0B6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -310,7 +310,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,13 +323,34 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -338,7 +359,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -353,6 +374,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6138,8 +6174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D41F742-ED28-F54E-A0E3-8C31CDC77D1B}">
   <dimension ref="A1:AK128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -7185,32 +7221,32 @@
       </c>
     </row>
     <row r="15" spans="1:37">
-      <c r="A15" t="s">
+      <c r="A15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="7">
         <v>3</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
         <v>3</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="8">
         <v>2</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7">
         <v>0.8</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="7">
         <f>J15/5</f>
         <v>0.8</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="9">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
@@ -10696,28 +10732,28 @@
       </c>
     </row>
     <row r="95" spans="1:23">
-      <c r="A95" t="s">
+      <c r="A95" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B95">
-        <v>1</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-      <c r="E95">
+      <c r="B95" s="6">
+        <v>1</v>
+      </c>
+      <c r="C95" s="6">
+        <v>1</v>
+      </c>
+      <c r="D95" s="6">
+        <v>1</v>
+      </c>
+      <c r="E95" s="5">
         <v>2</v>
       </c>
-      <c r="F95">
-        <v>1</v>
-      </c>
-      <c r="G95">
-        <v>1</v>
-      </c>
-      <c r="H95">
+      <c r="F95" s="6">
+        <v>1</v>
+      </c>
+      <c r="G95" s="6">
+        <v>1</v>
+      </c>
+      <c r="H95" s="6">
         <f>J95/6</f>
         <v>0.83333333333333337</v>
       </c>
